--- a/Technology/Software/Veeva Systems.xlsx
+++ b/Technology/Software/Veeva Systems.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ABC854-E5E5-6F4A-9C0E-93A41A9E369A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D5D89B-4A23-E045-9900-1670033788B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -565,19 +568,26 @@
   </si>
   <si>
     <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -740,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -846,62 +856,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -918,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -960,73 +917,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
@@ -1034,32 +936,73 @@
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1112,8 +1055,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>VEEV</a:t>
+              <a:t>Veeva</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Systems</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1150,10 +1098,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0056013179571667E-2"/>
-          <c:y val="0.12523351997594737"/>
-          <c:w val="0.84799999999999998"/>
-          <c:h val="0.7196436033580067"/>
+          <c:x val="7.71305785123967E-2"/>
+          <c:y val="0.15115383770338744"/>
+          <c:w val="0.88055537190082644"/>
+          <c:h val="0.62788718975649882"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1207,6 +1155,54 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$N$3</c:f>
@@ -1257,7 +1253,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43A9-4441-A142-75658F2B453D}"/>
+              <c16:uniqueId val="{00000000-E620-A444-82E5-D6BBACFABD1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1266,11 +1262,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1308,57 +1304,105 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$N$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5483000</c:v>
+                  <c:v>3909000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7060000</c:v>
+                  <c:v>4230000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29882000</c:v>
+                  <c:v>18783000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40910000</c:v>
+                  <c:v>23615000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71115000</c:v>
+                  <c:v>40383000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87081000</c:v>
+                  <c:v>54460000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123460000</c:v>
+                  <c:v>68804000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>172911000</c:v>
+                  <c:v>141966000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>252714000</c:v>
+                  <c:v>229832000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>333556000</c:v>
+                  <c:v>301118000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>423448000</c:v>
+                  <c:v>379998000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>554489000</c:v>
+                  <c:v>427390000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>538218000</c:v>
+                  <c:v>487706000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-43A9-4441-A142-75658F2B453D}"/>
+              <c16:uniqueId val="{00000001-E620-A444-82E5-D6BBACFABD1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1409,6 +1453,54 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$107:$N$107</c:f>
@@ -1459,7 +1551,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-43A9-4441-A142-75658F2B453D}"/>
+              <c16:uniqueId val="{00000002-E620-A444-82E5-D6BBACFABD1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1473,11 +1565,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1951105503"/>
-        <c:axId val="1951107231"/>
+        <c:axId val="1132530815"/>
+        <c:axId val="1132773615"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1951105503"/>
+        <c:axId val="1132530815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1597,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1517,7 +1609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1951107231"/>
+        <c:crossAx val="1132773615"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1525,7 +1617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1951107231"/>
+        <c:axId val="1132773615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,7 +1665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1951105503"/>
+        <c:crossAx val="1132530815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1591,10 +1683,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37089535471986923"/>
-          <c:y val="0.91997838783749752"/>
-          <c:w val="0.27929660522253497"/>
-          <c:h val="5.2076229881875248E-2"/>
+          <c:x val="0.3431097806989003"/>
+          <c:y val="0.88195167931136975"/>
+          <c:w val="0.31378033448298304"/>
+          <c:h val="6.2854753274371664E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2174,22 +2266,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782AB0F9-23AC-B0C6-AAE3-AC09B482AEE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DA2CF6-73FF-DE53-71B6-E32526412375}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,6 +2300,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2929,10 +3075,10 @@
   <dimension ref="A1:W118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q93" sqref="Q93"/>
+      <selection pane="bottomRight" activeCell="P132" sqref="P132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2985,19 +3131,19 @@
       <c r="N1" s="8">
         <v>2023</v>
       </c>
-      <c r="O1" s="27">
+      <c r="O1" s="23">
         <v>2024</v>
       </c>
-      <c r="P1" s="27">
+      <c r="P1" s="23">
         <v>2025</v>
       </c>
-      <c r="Q1" s="27">
+      <c r="Q1" s="23">
         <v>2026</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="23">
         <v>2027</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1" s="23">
         <v>2028</v>
       </c>
     </row>
@@ -3103,20 +3249,20 @@
       <c r="N3" s="1">
         <v>2155060000</v>
       </c>
-      <c r="O3" s="28">
-        <v>2355000000</v>
-      </c>
-      <c r="P3" s="28">
-        <v>2804000000</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>3222000000</v>
-      </c>
-      <c r="R3" s="28">
-        <v>3693000000</v>
-      </c>
-      <c r="S3" s="28">
-        <v>4236000000</v>
+      <c r="O3" s="24">
+        <v>2366000000</v>
+      </c>
+      <c r="P3" s="24">
+        <v>2816000000</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>3237000000</v>
+      </c>
+      <c r="R3" s="24">
+        <v>3733000000</v>
+      </c>
+      <c r="S3" s="24">
+        <v>4264000000</v>
       </c>
       <c r="T3" s="18" t="s">
         <v>107</v>
@@ -3186,23 +3332,23 @@
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>9.2776999248280756E-2</v>
+        <v>9.7881265486807756E-2</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1906581740976645</v>
+        <v>0.19019442096365169</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>0.14907275320970048</v>
+        <v>0.14950284090909083</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>0.14618249534450656</v>
+        <v>0.15322829780661107</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>0.14703493095044684</v>
+        <v>0.14224484328957954</v>
       </c>
       <c r="T4" s="17">
         <f>(N4+M4+L4)/3</f>
@@ -3870,19 +4016,19 @@
       <c r="N16" s="1">
         <v>1695969000</v>
       </c>
-      <c r="T16" s="29">
+      <c r="T16" s="25">
         <f>(N35+M35+L35+K35+J35)/5</f>
         <v>9.0394776739616267E-3</v>
       </c>
-      <c r="U16" s="65">
+      <c r="U16" s="38">
         <f>V101/N3</f>
         <v>14.865092649856617</v>
       </c>
-      <c r="V16" s="65">
+      <c r="V16" s="38">
         <f>V101/N28</f>
         <v>65.685405892074328</v>
       </c>
-      <c r="W16" s="66">
+      <c r="W16" s="39">
         <f>V101/N107</f>
         <v>41.045993524414776</v>
       </c>
@@ -4030,36 +4176,36 @@
       <c r="N19" s="10">
         <v>538218000</v>
       </c>
-      <c r="O19" s="60">
-        <v>832200000</v>
-      </c>
-      <c r="P19" s="60">
+      <c r="O19" s="33">
+        <v>834000000</v>
+      </c>
+      <c r="P19" s="33">
         <v>1055000000</v>
       </c>
-      <c r="Q19" s="60">
-        <v>1246000000</v>
-      </c>
-      <c r="R19" s="60">
+      <c r="Q19" s="33">
+        <v>1217000000</v>
+      </c>
+      <c r="R19" s="33">
         <v>1591000000</v>
       </c>
-      <c r="S19" s="60">
-        <v>1687000000</v>
-      </c>
-      <c r="T19" s="30">
+      <c r="S19" s="33">
+        <v>1697000000</v>
+      </c>
+      <c r="T19" s="26">
         <f>N40-N56-N61</f>
         <v>3041652000</v>
       </c>
-      <c r="U19" s="65">
+      <c r="U19" s="38">
         <f>V101/O3</f>
-        <v>13.603043127813164</v>
-      </c>
-      <c r="V19" s="65">
+        <v>13.539799901098901</v>
+      </c>
+      <c r="V19" s="38">
         <f>V101/O28</f>
         <v>42.839217124899704</v>
       </c>
-      <c r="W19" s="66">
+      <c r="W19" s="39">
         <f>V101/O106</f>
-        <v>43.520128468958021</v>
+        <v>43.408084777777781</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4117,26 +4263,26 @@
       </c>
       <c r="O20" s="16">
         <f t="shared" ref="O20" si="4">(O19/N19)-1</f>
-        <v>0.54621361604405649</v>
+        <v>0.54955798579757653</v>
       </c>
       <c r="P20" s="16">
         <f t="shared" ref="P20" si="5">(P19/O19)-1</f>
-        <v>0.2677241047825043</v>
+        <v>0.26498800959232605</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" ref="Q20" si="6">(Q19/P19)-1</f>
-        <v>0.181042654028436</v>
+        <v>0.15355450236966828</v>
       </c>
       <c r="R20" s="16">
         <f t="shared" ref="R20" si="7">(R19/Q19)-1</f>
-        <v>0.2768860353130016</v>
+        <v>0.30731306491372234</v>
       </c>
       <c r="S20" s="16">
         <f t="shared" ref="S20" si="8">(S19/R19)-1</f>
-        <v>6.0339409176618508E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+        <v>6.6624764299182848E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4179,25 +4325,31 @@
       <c r="N21" s="2">
         <v>0.24970000000000001</v>
       </c>
-      <c r="O21" s="61">
+      <c r="O21" s="34">
         <f>O19/O3</f>
-        <v>0.35337579617834397</v>
-      </c>
-      <c r="P21" s="61">
+        <v>0.35249366018596789</v>
+      </c>
+      <c r="P21" s="34">
         <f t="shared" ref="P21:S21" si="9">P19/P3</f>
-        <v>0.37624821683309556</v>
-      </c>
-      <c r="Q21" s="61">
+        <v>0.37464488636363635</v>
+      </c>
+      <c r="Q21" s="34">
         <f t="shared" si="9"/>
-        <v>0.38671632526381128</v>
-      </c>
-      <c r="R21" s="61">
+        <v>0.37596540006178558</v>
+      </c>
+      <c r="R21" s="34">
         <f t="shared" si="9"/>
-        <v>0.43081505551042515</v>
-      </c>
-      <c r="S21" s="61">
+        <v>0.42619876774712029</v>
+      </c>
+      <c r="S21" s="34">
         <f t="shared" si="9"/>
-        <v>0.39825306893295565</v>
+        <v>0.39798311444652906</v>
+      </c>
+      <c r="V21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -4243,6 +4395,14 @@
       <c r="N22" s="10">
         <v>459091000</v>
       </c>
+      <c r="V22" s="61">
+        <f>(-1*N98)/V101</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="62">
+        <f>N107/V101</f>
+        <v>2.4362913749552316E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -4507,20 +4667,20 @@
       <c r="N28" s="11">
         <v>487706000</v>
       </c>
-      <c r="O28" s="62">
+      <c r="O28" s="35">
         <v>747800000</v>
       </c>
-      <c r="P28" s="62">
-        <v>905000000</v>
-      </c>
-      <c r="Q28" s="62">
+      <c r="P28" s="35">
+        <v>908000000</v>
+      </c>
+      <c r="Q28" s="35">
         <v>1021000000</v>
       </c>
-      <c r="R28" s="62">
-        <v>1038000000</v>
-      </c>
-      <c r="S28" s="62">
-        <v>1174000000</v>
+      <c r="R28" s="35">
+        <v>1065000000</v>
+      </c>
+      <c r="S28" s="35">
+        <v>1188000000</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4582,19 +4742,19 @@
       </c>
       <c r="P29" s="16">
         <f t="shared" ref="P29" si="12">(P28/O28)-1</f>
-        <v>0.2102166354640278</v>
+        <v>0.21422840331639481</v>
       </c>
       <c r="Q29" s="16">
         <f t="shared" ref="Q29" si="13">(Q28/P28)-1</f>
-        <v>0.12817679558011053</v>
+        <v>0.12444933920704848</v>
       </c>
       <c r="R29" s="16">
         <f t="shared" ref="R29" si="14">(R28/Q28)-1</f>
-        <v>1.6650342801175277E-2</v>
+        <v>4.3095004897159672E-2</v>
       </c>
       <c r="S29" s="16">
         <f t="shared" ref="S29" si="15">(S28/R28)-1</f>
-        <v>0.13102119460500972</v>
+        <v>0.11549295774647894</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -4640,25 +4800,25 @@
       <c r="N30" s="2">
         <v>0.2263</v>
       </c>
-      <c r="O30" s="63">
+      <c r="O30" s="36">
         <f>O28/O3</f>
-        <v>0.31753715498938428</v>
-      </c>
-      <c r="P30" s="63">
+        <v>0.31606086221470836</v>
+      </c>
+      <c r="P30" s="36">
         <f t="shared" ref="P30:S30" si="16">P28/P3</f>
-        <v>0.32275320970042798</v>
-      </c>
-      <c r="Q30" s="63">
+        <v>0.32244318181818182</v>
+      </c>
+      <c r="Q30" s="36">
         <f t="shared" si="16"/>
-        <v>0.31688392302917445</v>
-      </c>
-      <c r="R30" s="63">
+        <v>0.31541550818659253</v>
+      </c>
+      <c r="R30" s="36">
         <f t="shared" si="16"/>
-        <v>0.28107229894394803</v>
-      </c>
-      <c r="S30" s="63">
+        <v>0.28529332976158583</v>
+      </c>
+      <c r="S30" s="36">
         <f t="shared" si="16"/>
-        <v>0.27714825306893298</v>
+        <v>0.27861163227016883</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -4704,20 +4864,20 @@
       <c r="N31" s="12">
         <v>3.24</v>
       </c>
-      <c r="O31" s="64">
+      <c r="O31" s="37">
         <v>4.67</v>
       </c>
-      <c r="P31" s="64">
-        <v>5.65</v>
-      </c>
-      <c r="Q31" s="64">
+      <c r="P31" s="37">
+        <v>5.66</v>
+      </c>
+      <c r="Q31" s="37">
         <v>6.37</v>
       </c>
-      <c r="R31" s="64">
-        <v>6.48</v>
-      </c>
-      <c r="S31" s="64">
-        <v>7.33</v>
+      <c r="R31" s="37">
+        <v>6.65</v>
+      </c>
+      <c r="S31" s="37">
+        <v>7.42</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7030,10 +7190,10 @@
       <c r="N83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U83" s="69" t="s">
+      <c r="U83" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="V83" s="70"/>
+      <c r="V83" s="65"/>
     </row>
     <row r="84" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7078,10 +7238,10 @@
       <c r="N84" s="1">
         <v>21429000</v>
       </c>
-      <c r="U84" s="71" t="s">
+      <c r="U84" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="V84" s="72"/>
+      <c r="V84" s="66"/>
     </row>
     <row r="85" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7126,10 +7286,10 @@
       <c r="N85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U85" s="23" t="s">
+      <c r="U85" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="V85" s="24">
+      <c r="V85" s="41">
         <f>N17</f>
         <v>11487000</v>
       </c>
@@ -7177,10 +7337,10 @@
       <c r="N86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U86" s="23" t="s">
+      <c r="U86" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="V86" s="24">
+      <c r="V86" s="41">
         <f>N56</f>
         <v>11306000</v>
       </c>
@@ -7228,10 +7388,10 @@
       <c r="N87" s="10">
         <v>780470000</v>
       </c>
-      <c r="U87" s="23" t="s">
+      <c r="U87" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="V87" s="24">
+      <c r="V87" s="41">
         <f>N61</f>
         <v>49670000</v>
       </c>
@@ -7279,10 +7439,10 @@
       <c r="N88" s="1">
         <v>0</v>
       </c>
-      <c r="U88" s="31" t="s">
+      <c r="U88" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="V88" s="32">
+      <c r="V88" s="43">
         <f>V85/(V86+V87)</f>
         <v>0.18838559433219629</v>
       </c>
@@ -7343,10 +7503,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U89" s="23" t="s">
+      <c r="U89" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="V89" s="24">
+      <c r="V89" s="41">
         <f>N27</f>
         <v>21390000</v>
       </c>
@@ -7394,10 +7554,10 @@
       <c r="N90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U90" s="23" t="s">
+      <c r="U90" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="V90" s="24">
+      <c r="V90" s="41">
         <f>N25</f>
         <v>509096000</v>
       </c>
@@ -7445,10 +7605,10 @@
       <c r="N91" s="1">
         <v>-1996878000</v>
       </c>
-      <c r="U91" s="31" t="s">
+      <c r="U91" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="V91" s="32">
+      <c r="V91" s="43">
         <f>V89/V90</f>
         <v>4.201565127205871E-2</v>
       </c>
@@ -7496,10 +7656,10 @@
       <c r="N92" s="1">
         <v>1002707000</v>
       </c>
-      <c r="U92" s="33" t="s">
+      <c r="U92" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="V92" s="34">
+      <c r="V92" s="43">
         <f>V88*(1-V91)</f>
         <v>0.18047045089605521</v>
       </c>
@@ -7547,10 +7707,10 @@
       <c r="N93" s="1">
         <v>-13512000</v>
       </c>
-      <c r="U93" s="71" t="s">
+      <c r="U93" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="V93" s="72"/>
+      <c r="V93" s="66"/>
     </row>
     <row r="94" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7595,11 +7755,12 @@
       <c r="N94" s="10">
         <v>-1007683000</v>
       </c>
-      <c r="U94" s="23" t="s">
+      <c r="U94" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="V94" s="35">
-        <v>4.095E-2</v>
+      <c r="V94" s="44">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7645,10 +7806,10 @@
       <c r="N95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U95" s="23" t="s">
+      <c r="U95" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="V95" s="36" cm="1">
+      <c r="V95" s="45" cm="1">
         <f t="array" ref="V95">_FV(A1,"Beta")</f>
         <v>0.94679999999999997</v>
       </c>
@@ -7696,10 +7857,10 @@
       <c r="N96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U96" s="23" t="s">
+      <c r="U96" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="V96" s="35">
+      <c r="V96" s="44">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7746,12 +7907,12 @@
       <c r="N97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U97" s="33" t="s">
+      <c r="U97" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="V97" s="34">
+      <c r="V97" s="43">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>8.1709740000000003E-2</v>
+        <v>8.161238400000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7794,13 +7955,13 @@
       <c r="M98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N98" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U98" s="71" t="s">
+      <c r="N98" s="1">
+        <v>0</v>
+      </c>
+      <c r="U98" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="V98" s="72"/>
+      <c r="V98" s="66"/>
     </row>
     <row r="99" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7845,10 +8006,10 @@
       <c r="N99" s="1">
         <v>-19376000</v>
       </c>
-      <c r="U99" s="23" t="s">
+      <c r="U99" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="V99" s="24">
+      <c r="V99" s="41">
         <f>V86+V87</f>
         <v>60976000</v>
       </c>
@@ -7896,10 +8057,10 @@
       <c r="N100" s="10">
         <v>-19376000</v>
       </c>
-      <c r="U100" s="31" t="s">
+      <c r="U100" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="V100" s="32">
+      <c r="V100" s="43">
         <f>V99/V103</f>
         <v>1.8997921595909453E-3</v>
       </c>
@@ -7947,10 +8108,10 @@
       <c r="N101" s="1">
         <v>-4986000</v>
       </c>
-      <c r="U101" s="23" t="s">
+      <c r="U101" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="V101" s="37" cm="1">
+      <c r="V101" s="46" cm="1">
         <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
         <v>32035166566</v>
       </c>
@@ -7998,10 +8159,10 @@
       <c r="N102" s="10">
         <v>-251575000</v>
       </c>
-      <c r="U102" s="31" t="s">
+      <c r="U102" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="V102" s="32">
+      <c r="V102" s="43">
         <f>V101/V103</f>
         <v>0.99810020784040909</v>
       </c>
@@ -8049,10 +8210,10 @@
       <c r="N103" s="1">
         <v>1141225000</v>
       </c>
-      <c r="U103" s="33" t="s">
+      <c r="U103" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="V103" s="38">
+      <c r="V103" s="47">
         <f>V99+V101</f>
         <v>32096142566</v>
       </c>
@@ -8100,10 +8261,10 @@
       <c r="N104" s="11">
         <v>889650000</v>
       </c>
-      <c r="U104" s="71" t="s">
+      <c r="U104" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="V104" s="72"/>
+      <c r="V104" s="66"/>
     </row>
     <row r="105" spans="1:22" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8161,35 +8322,35 @@
         <f>((N22*(1-$AT$91))+N77+N88-N81)</f>
         <v>448976000</v>
       </c>
-      <c r="O105" s="39">
+      <c r="O105" s="27">
         <f>N105*(1+$V$106)</f>
-        <v>514142653.20429009</v>
-      </c>
-      <c r="P105" s="39">
+        <v>514800521.17931694</v>
+      </c>
+      <c r="P105" s="27">
         <f t="shared" ref="P105:S105" si="21">O105*(1+$V$106)</f>
-        <v>588767924.88673544</v>
-      </c>
-      <c r="Q105" s="39">
+        <v>590275597.3737936</v>
+      </c>
+      <c r="Q105" s="27">
         <f t="shared" si="21"/>
-        <v>674224686.89384365</v>
-      </c>
-      <c r="R105" s="39">
+        <v>676816099.67450726</v>
+      </c>
+      <c r="R105" s="27">
         <f t="shared" si="21"/>
-        <v>772085076.65316749</v>
-      </c>
-      <c r="S105" s="39">
+        <v>776044333.89532816</v>
+      </c>
+      <c r="S105" s="27">
         <f t="shared" si="21"/>
-        <v>884149419.59012783</v>
-      </c>
-      <c r="T105" s="40" t="s">
+        <v>889820452.64684701</v>
+      </c>
+      <c r="T105" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="U105" s="25" t="s">
+      <c r="U105" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="V105" s="26">
+      <c r="V105" s="49">
         <f>(V100*V92)+(V102*V97)</f>
-        <v>8.1897364824235971E-2</v>
+        <v>8.1800193780401459E-2</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8245,34 +8406,34 @@
         <f>(N105/M105)-1</f>
         <v>-0.12357817846776098</v>
       </c>
-      <c r="O106" s="58">
-        <v>736100000</v>
-      </c>
-      <c r="P106" s="58">
+      <c r="O106" s="31">
+        <v>738000000</v>
+      </c>
+      <c r="P106" s="31">
         <v>964200000</v>
       </c>
-      <c r="Q106" s="58">
-        <v>1121000000</v>
-      </c>
-      <c r="R106" s="58">
-        <v>1443000000</v>
-      </c>
-      <c r="S106" s="58">
-        <v>1541000000</v>
-      </c>
-      <c r="T106" s="40" t="s">
+      <c r="Q106" s="31">
+        <v>1096000000</v>
+      </c>
+      <c r="R106" s="31">
+        <v>1441000000</v>
+      </c>
+      <c r="S106" s="31">
+        <v>1548000000</v>
+      </c>
+      <c r="T106" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="U106" s="41" t="s">
+      <c r="U106" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="V106" s="42">
+      <c r="V106" s="51">
         <f>(SUM(O4:S4)/5)</f>
-        <v>0.14514507057011983</v>
+        <v>0.14661033369114818</v>
       </c>
     </row>
     <row r="107" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="57" t="s">
+      <c r="A107" s="30" t="s">
         <v>158</v>
       </c>
       <c r="B107" s="1">
@@ -8314,139 +8475,139 @@
       <c r="N107" s="1">
         <v>780470000</v>
       </c>
-      <c r="O107" s="40"/>
-      <c r="P107" s="40"/>
-      <c r="Q107" s="40"/>
-      <c r="R107" s="40"/>
-      <c r="S107" s="59">
+      <c r="O107" s="28"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="28"/>
+      <c r="R107" s="28"/>
+      <c r="S107" s="32">
         <f>S106*(1+V107)/(V108-V107)</f>
-        <v>27760951757.245289</v>
-      </c>
-      <c r="T107" s="43" t="s">
+        <v>27934763851.940948</v>
+      </c>
+      <c r="T107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="U107" s="44" t="s">
+      <c r="U107" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="V107" s="45">
+      <c r="V107" s="53">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O108" s="46">
-        <f>O107+O105</f>
-        <v>514142653.20429009</v>
-      </c>
-      <c r="P108" s="46">
-        <f>P107+P105</f>
-        <v>588767924.88673544</v>
-      </c>
-      <c r="Q108" s="46">
-        <f>Q107+Q105</f>
-        <v>674224686.89384365</v>
-      </c>
-      <c r="R108" s="46">
-        <f>R107+R105</f>
-        <v>772085076.65316749</v>
-      </c>
-      <c r="S108" s="59">
+      <c r="O108" s="32">
+        <f t="shared" ref="O108:R108" si="23">O107+O106</f>
+        <v>738000000</v>
+      </c>
+      <c r="P108" s="32">
+        <f t="shared" si="23"/>
+        <v>964200000</v>
+      </c>
+      <c r="Q108" s="32">
+        <f t="shared" si="23"/>
+        <v>1096000000</v>
+      </c>
+      <c r="R108" s="32">
+        <f t="shared" si="23"/>
+        <v>1441000000</v>
+      </c>
+      <c r="S108" s="32">
         <f>S107+S106</f>
-        <v>29301951757.245289</v>
-      </c>
-      <c r="T108" s="43" t="s">
+        <v>29482763851.940948</v>
+      </c>
+      <c r="T108" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="U108" s="47" t="s">
+      <c r="U108" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="V108" s="48">
+      <c r="V108" s="51">
         <f>V105</f>
-        <v>8.1897364824235971E-2</v>
+        <v>8.1800193780401459E-2</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O109" s="67" t="s">
+      <c r="O109" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="P109" s="68"/>
+      <c r="P109" s="63"/>
     </row>
     <row r="110" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O110" s="49" t="s">
+      <c r="O110" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="P110" s="37">
+      <c r="P110" s="46">
         <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>21842332519.358013</v>
+        <v>23323019128.421711</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O111" s="49" t="s">
+      <c r="O111" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="P111" s="37">
+      <c r="P111" s="46">
         <f>N40</f>
         <v>3102628000</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O112" s="49" t="s">
+      <c r="O112" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="P112" s="37">
+      <c r="P112" s="46">
         <f>V99</f>
         <v>60976000</v>
       </c>
     </row>
     <row r="113" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O113" s="49" t="s">
+      <c r="O113" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="P113" s="37">
+      <c r="P113" s="46">
         <f>P110+P111-P112</f>
-        <v>24883984519.358013</v>
+        <v>26364671128.421711</v>
       </c>
     </row>
     <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O114" s="49" t="s">
+      <c r="O114" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="P114" s="50">
+      <c r="P114" s="55">
         <f>N34*(1+(5*T16))</f>
         <v>167996666.62745601</v>
       </c>
     </row>
     <row r="115" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O115" s="51" t="s">
+      <c r="O115" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="P115" s="52">
+      <c r="P115" s="57">
         <f>P113/P114</f>
-        <v>148.12189443341714</v>
+        <v>156.9356800804099</v>
       </c>
     </row>
     <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O116" s="49" t="s">
+      <c r="O116" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="P116" s="53" cm="1">
+      <c r="P116" s="58" cm="1">
         <f t="array" ref="P116">_FV(A1,"Price",TRUE)</f>
         <v>199.94</v>
       </c>
     </row>
     <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O117" s="54" t="s">
+      <c r="O117" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="P117" s="55">
+      <c r="P117" s="59">
         <f>P115/P116-1</f>
-        <v>-0.25916827831640921</v>
+        <v>-0.21508612543558114</v>
       </c>
     </row>
     <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O118" s="54" t="s">
+      <c r="O118" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="P118" s="56" t="str">
+      <c r="P118" s="60" t="str">
         <f>IF(P115&gt;P116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
